--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.44575933333333</v>
+        <v>58.62893533333334</v>
       </c>
       <c r="H2">
-        <v>73.337278</v>
+        <v>175.886806</v>
       </c>
       <c r="I2">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="J2">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.635297666666666</v>
+        <v>7.145781666666667</v>
       </c>
       <c r="N2">
-        <v>16.905893</v>
+        <v>21.437345</v>
       </c>
       <c r="O2">
-        <v>0.09323918274550405</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="P2">
-        <v>0.09323918274550407</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="Q2">
-        <v>137.7591305310282</v>
+        <v>418.949571241119</v>
       </c>
       <c r="R2">
-        <v>1239.832174779254</v>
+        <v>3770.54614117007</v>
       </c>
       <c r="S2">
-        <v>0.03761317371193969</v>
+        <v>0.06550771389115967</v>
       </c>
       <c r="T2">
-        <v>0.03761317371193969</v>
+        <v>0.06550771389115967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.44575933333333</v>
+        <v>58.62893533333334</v>
       </c>
       <c r="H3">
-        <v>73.337278</v>
+        <v>175.886806</v>
       </c>
       <c r="I3">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="J3">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>55.595342</v>
       </c>
       <c r="O3">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="P3">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="Q3">
-        <v>453.0234501954528</v>
+        <v>1086.498570317517</v>
       </c>
       <c r="R3">
-        <v>4077.211051759075</v>
+        <v>9778.487132857652</v>
       </c>
       <c r="S3">
-        <v>0.1236916178412283</v>
+        <v>0.1698868846593257</v>
       </c>
       <c r="T3">
-        <v>0.1236916178412283</v>
+        <v>0.1698868846593257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.44575933333333</v>
+        <v>58.62893533333334</v>
       </c>
       <c r="H4">
-        <v>73.337278</v>
+        <v>175.886806</v>
       </c>
       <c r="I4">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="J4">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.49771700000001</v>
+        <v>22.83059133333333</v>
       </c>
       <c r="N4">
-        <v>64.49315100000001</v>
+        <v>68.49177399999999</v>
       </c>
       <c r="O4">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="P4">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="Q4">
-        <v>525.5280159981088</v>
+        <v>1338.53326290376</v>
       </c>
       <c r="R4">
-        <v>4729.752143982979</v>
+        <v>12046.79936613384</v>
       </c>
       <c r="S4">
-        <v>0.1434879596004398</v>
+        <v>0.2092954857558139</v>
       </c>
       <c r="T4">
-        <v>0.1434879596004398</v>
+        <v>0.2092954857558139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.44575933333333</v>
+        <v>58.62893533333334</v>
       </c>
       <c r="H5">
-        <v>73.337278</v>
+        <v>175.886806</v>
       </c>
       <c r="I5">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="J5">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.77436233333333</v>
+        <v>13.69598566666667</v>
       </c>
       <c r="N5">
-        <v>44.323087</v>
+        <v>41.087957</v>
       </c>
       <c r="O5">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="P5">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="Q5">
-        <v>361.1705059041317</v>
+        <v>802.9810579772602</v>
       </c>
       <c r="R5">
-        <v>3250.534553137186</v>
+        <v>7226.829521795342</v>
       </c>
       <c r="S5">
-        <v>0.09861247618096342</v>
+        <v>0.125555572834615</v>
       </c>
       <c r="T5">
-        <v>0.0986124761809634</v>
+        <v>0.125555572834615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>42.86704</v>
       </c>
       <c r="I6">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218762</v>
       </c>
       <c r="J6">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218763</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.635297666666666</v>
+        <v>7.145781666666667</v>
       </c>
       <c r="N6">
-        <v>16.905893</v>
+        <v>21.437345</v>
       </c>
       <c r="O6">
-        <v>0.09323918274550405</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="P6">
-        <v>0.09323918274550407</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="Q6">
-        <v>80.52284349630223</v>
+        <v>102.1061695120889</v>
       </c>
       <c r="R6">
-        <v>724.70559146672</v>
+        <v>918.9555256088</v>
       </c>
       <c r="S6">
-        <v>0.02198561858318041</v>
+        <v>0.01596550563139396</v>
       </c>
       <c r="T6">
-        <v>0.02198561858318041</v>
+        <v>0.01596550563139396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>42.86704</v>
       </c>
       <c r="I7">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218762</v>
       </c>
       <c r="J7">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218763</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>55.595342</v>
       </c>
       <c r="O7">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="P7">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="Q7">
         <v>264.8008610364089</v>
@@ -883,10 +883,10 @@
         <v>2383.20774932768</v>
       </c>
       <c r="S7">
-        <v>0.0723001135884079</v>
+        <v>0.04140474232141494</v>
       </c>
       <c r="T7">
-        <v>0.0723001135884079</v>
+        <v>0.04140474232141495</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>42.86704</v>
       </c>
       <c r="I8">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218762</v>
       </c>
       <c r="J8">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218763</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.49771700000001</v>
+        <v>22.83059133333333</v>
       </c>
       <c r="N8">
-        <v>64.49315100000001</v>
+        <v>68.49177399999999</v>
       </c>
       <c r="O8">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="P8">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="Q8">
-        <v>307.1811648492268</v>
+        <v>326.2266239698844</v>
       </c>
       <c r="R8">
-        <v>2764.630483643041</v>
+        <v>2936.03961572896</v>
       </c>
       <c r="S8">
-        <v>0.08387145352886477</v>
+        <v>0.05100938588715917</v>
       </c>
       <c r="T8">
-        <v>0.08387145352886477</v>
+        <v>0.05100938588715918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>42.86704</v>
       </c>
       <c r="I9">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218762</v>
       </c>
       <c r="J9">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218763</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.77436233333333</v>
+        <v>13.69598566666667</v>
       </c>
       <c r="N9">
-        <v>44.323087</v>
+        <v>41.087957</v>
       </c>
       <c r="O9">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="P9">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="Q9">
-        <v>211.1110603724978</v>
+        <v>195.7021218041422</v>
       </c>
       <c r="R9">
-        <v>1899.99954335248</v>
+        <v>1761.31909623728</v>
       </c>
       <c r="S9">
-        <v>0.05764087618507475</v>
+        <v>0.03060033828190817</v>
       </c>
       <c r="T9">
-        <v>0.05764087618507475</v>
+        <v>0.03060033828190818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.38374133333333</v>
+        <v>27.27518533333334</v>
       </c>
       <c r="H10">
-        <v>64.151224</v>
+        <v>81.82555600000001</v>
       </c>
       <c r="I10">
-        <v>0.3528756426099016</v>
+        <v>0.265288050953297</v>
       </c>
       <c r="J10">
-        <v>0.3528756426099016</v>
+        <v>0.2652880509532971</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.635297666666666</v>
+        <v>7.145781666666667</v>
       </c>
       <c r="N10">
-        <v>16.905893</v>
+        <v>21.437345</v>
       </c>
       <c r="O10">
-        <v>0.09323918274550405</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="P10">
-        <v>0.09323918274550407</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="Q10">
-        <v>120.5037476403369</v>
+        <v>194.9025193098689</v>
       </c>
       <c r="R10">
-        <v>1084.533728763032</v>
+        <v>1754.12267378882</v>
       </c>
       <c r="S10">
-        <v>0.03290183652774179</v>
+        <v>0.03047531098741461</v>
       </c>
       <c r="T10">
-        <v>0.0329018365277418</v>
+        <v>0.03047531098741462</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.38374133333333</v>
+        <v>27.27518533333334</v>
       </c>
       <c r="H11">
-        <v>64.151224</v>
+        <v>81.82555600000001</v>
       </c>
       <c r="I11">
-        <v>0.3528756426099016</v>
+        <v>0.265288050953297</v>
       </c>
       <c r="J11">
-        <v>0.3528756426099016</v>
+        <v>0.2652880509532971</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>55.595342</v>
       </c>
       <c r="O11">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="P11">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="Q11">
-        <v>396.2788042220675</v>
+        <v>505.4577522400169</v>
       </c>
       <c r="R11">
-        <v>3566.509237998608</v>
+        <v>4549.119770160152</v>
       </c>
       <c r="S11">
-        <v>0.1081982983204672</v>
+        <v>0.07903428978269804</v>
       </c>
       <c r="T11">
-        <v>0.1081982983204672</v>
+        <v>0.07903428978269805</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.38374133333333</v>
+        <v>27.27518533333334</v>
       </c>
       <c r="H12">
-        <v>64.151224</v>
+        <v>81.82555600000001</v>
       </c>
       <c r="I12">
-        <v>0.3528756426099016</v>
+        <v>0.265288050953297</v>
       </c>
       <c r="J12">
-        <v>0.3528756426099016</v>
+        <v>0.2652880509532971</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.49771700000001</v>
+        <v>22.83059133333333</v>
       </c>
       <c r="N12">
-        <v>64.49315100000001</v>
+        <v>68.49177399999999</v>
       </c>
       <c r="O12">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="P12">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="Q12">
-        <v>459.7016195852028</v>
+        <v>622.7086098862604</v>
       </c>
       <c r="R12">
-        <v>4137.314576266825</v>
+        <v>5604.377488976344</v>
       </c>
       <c r="S12">
-        <v>0.1255149971291648</v>
+        <v>0.09736784628552268</v>
       </c>
       <c r="T12">
-        <v>0.1255149971291648</v>
+        <v>0.0973678462855227</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.38374133333333</v>
+        <v>27.27518533333334</v>
       </c>
       <c r="H13">
-        <v>64.151224</v>
+        <v>81.82555600000001</v>
       </c>
       <c r="I13">
-        <v>0.3528756426099016</v>
+        <v>0.265288050953297</v>
       </c>
       <c r="J13">
-        <v>0.3528756426099016</v>
+        <v>0.2652880509532971</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.77436233333333</v>
+        <v>13.69598566666667</v>
       </c>
       <c r="N13">
-        <v>44.323087</v>
+        <v>41.087957</v>
       </c>
       <c r="O13">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="P13">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="Q13">
-        <v>315.9311425009431</v>
+        <v>373.5605473810102</v>
       </c>
       <c r="R13">
-        <v>2843.380282508488</v>
+        <v>3362.044926429092</v>
       </c>
       <c r="S13">
-        <v>0.08626051063252782</v>
+        <v>0.05841060389766171</v>
       </c>
       <c r="T13">
-        <v>0.08626051063252782</v>
+        <v>0.05841060389766173</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.480005</v>
+        <v>2.620337</v>
       </c>
       <c r="H14">
-        <v>1.440015</v>
+        <v>7.861011</v>
       </c>
       <c r="I14">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="J14">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.635297666666666</v>
+        <v>7.145781666666667</v>
       </c>
       <c r="N14">
-        <v>16.905893</v>
+        <v>21.437345</v>
       </c>
       <c r="O14">
-        <v>0.09323918274550405</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="P14">
-        <v>0.09323918274550407</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="Q14">
-        <v>2.704971056488333</v>
+        <v>18.72435609508833</v>
       </c>
       <c r="R14">
-        <v>24.34473950839499</v>
+        <v>168.519204855795</v>
       </c>
       <c r="S14">
-        <v>0.0007385539226421634</v>
+        <v>0.002927774238411372</v>
       </c>
       <c r="T14">
-        <v>0.0007385539226421635</v>
+        <v>0.002927774238411373</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.480005</v>
+        <v>2.620337</v>
       </c>
       <c r="H15">
-        <v>1.440015</v>
+        <v>7.861011</v>
       </c>
       <c r="I15">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="J15">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>55.595342</v>
       </c>
       <c r="O15">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="P15">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="Q15">
-        <v>8.895347378903333</v>
+        <v>48.55951055675133</v>
       </c>
       <c r="R15">
-        <v>80.05812641012999</v>
+        <v>437.035595010762</v>
       </c>
       <c r="S15">
-        <v>0.002428748242682751</v>
+        <v>0.007592853036757573</v>
       </c>
       <c r="T15">
-        <v>0.002428748242682751</v>
+        <v>0.007592853036757574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.480005</v>
+        <v>2.620337</v>
       </c>
       <c r="H16">
-        <v>1.440015</v>
+        <v>7.861011</v>
       </c>
       <c r="I16">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="J16">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.49771700000001</v>
+        <v>22.83059133333333</v>
       </c>
       <c r="N16">
-        <v>64.49315100000001</v>
+        <v>68.49177399999999</v>
       </c>
       <c r="O16">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="P16">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="Q16">
-        <v>10.319011648585</v>
+        <v>59.82384320261265</v>
       </c>
       <c r="R16">
-        <v>92.87110483726501</v>
+        <v>538.4145888235139</v>
       </c>
       <c r="S16">
-        <v>0.002817459548253581</v>
+        <v>0.009354164494730751</v>
       </c>
       <c r="T16">
-        <v>0.002817459548253581</v>
+        <v>0.009354164494730753</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.480005</v>
+        <v>2.620337</v>
       </c>
       <c r="H17">
-        <v>1.440015</v>
+        <v>7.861011</v>
       </c>
       <c r="I17">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="J17">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.77436233333333</v>
+        <v>13.69598566666667</v>
       </c>
       <c r="N17">
-        <v>44.323087</v>
+        <v>41.087957</v>
       </c>
       <c r="O17">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="P17">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="Q17">
-        <v>7.091767791811667</v>
+        <v>35.88809799383633</v>
       </c>
       <c r="R17">
-        <v>63.825910126305</v>
+        <v>322.992881944527</v>
       </c>
       <c r="S17">
-        <v>0.00193630645642084</v>
+        <v>0.005611528014012658</v>
       </c>
       <c r="T17">
-        <v>0.00193630645642084</v>
+        <v>0.005611528014012659</v>
       </c>
     </row>
   </sheetData>
